--- a/medicine/Maladies infectieuses/Épidémie_de_dengue_de_2019-2020/Épidémie_de_dengue_de_2019-2020.xlsx
+++ b/medicine/Maladies infectieuses/Épidémie_de_dengue_de_2019-2020/Épidémie_de_dengue_de_2019-2020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9mie_de_dengue_de_2019-2020</t>
+          <t>Épidémie_de_dengue_de_2019-2020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épidémie de dengue de 2019-2020 est une épidémie de dengue, causée par le virus de la dengue (DEN) et transmise par les moustiques du genre Aedes, en particulier Aedes aegypti[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épidémie de dengue de 2019-2020 est une épidémie de dengue, causée par le virus de la dengue (DEN) et transmise par les moustiques du genre Aedes, en particulier Aedes aegypti,.
 La propagation de la maladie a augmenté dans les zones où les niveaux de vaccination ont diminué, où les mesures de prévention adéquates ne sont pas mises en œuvre et où la population de moustiques, qui sont les principaux porteurs de la maladie, et qui peuvent se reproduire en de grandes quantités surtout dans les climats chauds et humides.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9mie_de_dengue_de_2019-2020</t>
+          <t>Épidémie_de_dengue_de_2019-2020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,162 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Argentine
-L'épidémie en Argentine a commencé à la fin de 2019, cette année-là il y a eu 3 220 cas confirmés et l'année suivante 7 décès et 2 942 cas confirmés[3].
-Bolivie
-L'épidémie en Bolivie a débuté fin 2019, avec 23 décès et 16 193 cas confirmés enregistrés cette année-là et 19 décès et 68 570 cas confirmés l'année suivante[3],[1].
-Brésil
-L'épidémie au Brésil a débuté au début de 2019, avec 789 décès et 2 225 461 cas confirmés enregistrés cette année-là et 121 décès et 559 724 cas confirmés l'année suivante[3],[1].
-Équateur
-L'épidémie en Équateur a débuté en 2019 ; cette année-là, il y a eu 2 décès et 8 446 cas confirmés, et l'année suivante, 3 490 cas confirmés[3],[1].
-Pérou
-L'épidémie au Pérou  débute en octobre 2019 dans le département de Madre de Dios, dans le sud-est du pays. Au 17 novembre, selon le ministère de la santé, 16 personnes sont mortes et 3 000 sont infectées[4], ce qui en fait l'épidémie la plus grave de l'année.
-En février 2020, on compte 12 décès et 5480 cas confirmés dans les départements de Madre de Dios, San Martín et Loreto, tous situés en Amazonie péruvienne[5].
+          <t>Argentine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épidémie en Argentine a commencé à la fin de 2019, cette année-là il y a eu 3 220 cas confirmés et l'année suivante 7 décès et 2 942 cas confirmés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Épidémie_de_dengue_de_2019-2020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pid%C3%A9mie_de_dengue_de_2019-2020</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>En Amérique du Sud</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bolivie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épidémie en Bolivie a débuté fin 2019, avec 23 décès et 16 193 cas confirmés enregistrés cette année-là et 19 décès et 68 570 cas confirmés l'année suivante,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Épidémie_de_dengue_de_2019-2020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pid%C3%A9mie_de_dengue_de_2019-2020</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>En Amérique du Sud</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brésil</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épidémie au Brésil a débuté au début de 2019, avec 789 décès et 2 225 461 cas confirmés enregistrés cette année-là et 121 décès et 559 724 cas confirmés l'année suivante,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Épidémie_de_dengue_de_2019-2020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pid%C3%A9mie_de_dengue_de_2019-2020</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En Amérique du Sud</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Équateur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épidémie en Équateur a débuté en 2019 ; cette année-là, il y a eu 2 décès et 8 446 cas confirmés, et l'année suivante, 3 490 cas confirmés,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Épidémie_de_dengue_de_2019-2020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pid%C3%A9mie_de_dengue_de_2019-2020</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En Amérique du Sud</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pérou</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épidémie au Pérou  débute en octobre 2019 dans le département de Madre de Dios, dans le sud-est du pays. Au 17 novembre, selon le ministère de la santé, 16 personnes sont mortes et 3 000 sont infectées, ce qui en fait l'épidémie la plus grave de l'année.
+En février 2020, on compte 12 décès et 5480 cas confirmés dans les départements de Madre de Dios, San Martín et Loreto, tous situés en Amazonie péruvienne.
 </t>
         </is>
       </c>
